--- a/Database_Design.xlsx
+++ b/Database_Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentos\[USAC]\[Bases 1]\Proyecto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\USAC\7MO_SEMESTRE\BASES 1\BD1_P2_G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98294214-BFC1-4D13-B938-D5E67B29D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF27F2-22A4-4B1F-8344-3505E34AAFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1635" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
@@ -567,11 +567,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="J92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R107" sqref="R107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,12 +875,12 @@
       <c r="A1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -915,13 +915,13 @@
       <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -961,10 +961,10 @@
       <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -986,15 +986,15 @@
       <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1046,10 +1046,10 @@
       <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -1071,18 +1071,18 @@
       <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1152,10 +1152,10 @@
       <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -1177,16 +1177,16 @@
       <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -1244,10 +1244,10 @@
       <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -1269,15 +1269,15 @@
       <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -1329,10 +1329,10 @@
       <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -1354,13 +1354,13 @@
       <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -1400,10 +1400,10 @@
       <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
@@ -1425,11 +1425,11 @@
       <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -1457,12 +1457,12 @@
       <c r="A57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
@@ -1496,12 +1496,12 @@
       <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:4" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
@@ -1535,14 +1535,14 @@
       <c r="A65" s="3"/>
     </row>
     <row r="66" spans="1:6" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
@@ -1588,13 +1588,13 @@
       <c r="A69" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
@@ -1640,13 +1640,13 @@
       <c r="A73" s="3"/>
     </row>
     <row r="74" spans="1:6" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
@@ -1686,12 +1686,12 @@
       <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:6" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
@@ -1725,13 +1725,13 @@
       <c r="A81" s="3"/>
     </row>
     <row r="82" spans="1:23" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
@@ -1771,12 +1771,12 @@
       <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:23" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
@@ -1816,31 +1816,31 @@
       <c r="A91" s="3"/>
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
     </row>
     <row r="93" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
@@ -3335,6 +3335,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A82:E82"/>
     <mergeCell ref="A86:D86"/>
     <mergeCell ref="A92:W92"/>
@@ -3343,21 +3358,6 @@
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
